--- a/results/FigureLabels.xlsx
+++ b/results/FigureLabels.xlsx
@@ -8,26 +8,109 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>x-labels</t>
   </si>
   <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
     <t>y-text</t>
   </si>
   <si>
+    <t>y-labels</t>
+  </si>
+  <si>
+    <t>legends</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>Crimeville,</t>
+  </si>
+  <si>
+    <t>officers</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>chart</t>
+  </si>
+  <si>
     <t>SUV</t>
   </si>
   <si>
-    <t>y-labels</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
@@ -38,9 +121,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>legends</t>
   </si>
   <si>
     <t>ni</t>
@@ -91,6 +171,92 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>573267</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>174004</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="avgbar.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1333500"/>
+          <a:ext cx="8498067" cy="5317504"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="avgbar2.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1333500"/>
+          <a:ext cx="4572000" cy="4572000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -418,9 +584,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -431,41 +746,41 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/results/FigureLabels.xlsx
+++ b/results/FigureLabels.xlsx
@@ -57,6 +57,9 @@
     <t>legends</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
@@ -66,13 +69,10 @@
     <t>officers</t>
   </si>
   <si>
-    <t>to</t>
+    <t>police</t>
   </si>
   <si>
     <t>in</t>
-  </si>
-  <si>
-    <t>police</t>
   </si>
   <si>
     <t>Mar</t>
@@ -187,7 +187,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="avgbar.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="avgbar1.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -719,10 +719,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
